--- a/script/alumni_info.xlsx
+++ b/script/alumni_info.xlsx
@@ -117,9 +117,6 @@
     <t>LargeScale Multiagent Deep Reinforcement Learning</t>
   </si>
   <si>
-    <t>wwxfromtju.github.io</t>
-  </si>
-  <si>
     <t>https://pubuserqiniu.paperol.cn/230944298_9_q9_1691746175d8yZfA.png?attname=9_9_weixunwang.png&amp;e=1699852833&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:2v-0-q8RK2A1DkF_Ssn-ZrDhZmE=</t>
   </si>
   <si>
@@ -398,6 +395,10 @@
   </si>
   <si>
     <t>China Academy of Aerospace Scientce and Innovation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wwxfromtju.github.io</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +412,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -434,6 +435,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -452,7 +460,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -460,12 +468,14 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Comma" xfId="4"/>
     <cellStyle name="Comma [0]" xfId="5"/>
     <cellStyle name="Currency" xfId="2"/>
@@ -473,6 +483,7 @@
     <cellStyle name="Normal" xfId="6"/>
     <cellStyle name="Percent" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -810,55 +821,55 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
-    <col min="9" max="9" width="46.28515625" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="6.54296875" customWidth="1"/>
+    <col min="7" max="7" width="53.26953125" customWidth="1"/>
+    <col min="8" max="8" width="46.453125" customWidth="1"/>
+    <col min="9" max="9" width="46.26953125" customWidth="1"/>
+    <col min="10" max="10" width="255.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="J1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -884,13 +895,13 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -910,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -922,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -948,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -986,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1008,17 +1019,17 @@
       <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1038,27 +1049,27 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
       </c>
       <c r="D8">
         <v>2019</v>
@@ -1070,27 +1081,27 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="J8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
       </c>
       <c r="D9">
         <v>2019</v>
@@ -1102,27 +1113,27 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
       </c>
       <c r="D10">
         <v>2019</v>
@@ -1134,27 +1145,27 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
         <v>62</v>
       </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>63</v>
       </c>
-      <c r="J10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
       </c>
       <c r="D11">
         <v>2019</v>
@@ -1166,27 +1177,27 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
         <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -1198,27 +1209,27 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
       </c>
       <c r="D13">
         <v>2019</v>
@@ -1230,27 +1241,27 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
       </c>
       <c r="D14">
         <v>2019</v>
@@ -1262,27 +1273,27 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
       </c>
       <c r="I14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" t="s">
         <v>86</v>
       </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
       <c r="D15">
         <v>2018</v>
@@ -1294,27 +1305,27 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
       </c>
       <c r="D16">
         <v>2018</v>
@@ -1326,27 +1337,27 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
       </c>
       <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
         <v>40</v>
       </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
       </c>
       <c r="D17">
         <v>2018</v>
@@ -1358,27 +1369,27 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
         <v>49</v>
       </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>50</v>
       </c>
-      <c r="J17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
       </c>
       <c r="D18">
         <v>2018</v>
@@ -1390,27 +1401,27 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
       </c>
       <c r="D19">
         <v>2018</v>
@@ -1422,27 +1433,27 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
       </c>
       <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
         <v>73</v>
       </c>
-      <c r="J19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
       <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
       </c>
       <c r="D20">
         <v>2018</v>
@@ -1454,27 +1465,27 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
       </c>
       <c r="D21">
         <v>2017</v>
@@ -1486,19 +1497,19 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
         <v>44</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" t="s">
         <v>45</v>
       </c>
-      <c r="I21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1535,7 +1546,10 @@
     <sortCondition descending="1" ref="E1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/script/alumni_info.xlsx
+++ b/script/alumni_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
   <si>
     <t>序号</t>
   </si>
@@ -63,24 +63,6 @@
     <t>https://pubuserqiniu.paperol.cn/230944298_4_q9_1691633802XzEfnJ.jpg?attname=5_9_1.jpg&amp;e=1699852833&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:NvMH4iFzD41Bpstq8axJ6YPo-G8=</t>
   </si>
   <si>
-    <t>张程伟</t>
-  </si>
-  <si>
-    <t>Chengwei Zhang</t>
-  </si>
-  <si>
-    <t>Reinforcement Learning，Multiagent Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>https://ist.dlmu.edu.cn/professor/zhangchengwei2.html</t>
-  </si>
-  <si>
-    <t>Dalian Maritime University</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230944298_6_q9_1691650135knZhrS.jpg?attname=6_9_%e5%bc%a0%e7%a8%8b%e4%bc%9f%e4%b8%aa%e4%ba%ba%e8%af%81%e4%bb%b6%e7%85%a7%e7%89%87.jpg&amp;e=1699852833&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:rNWbratlSqJuXmoAtDTy3aOmXgg=</t>
-  </si>
-  <si>
     <t>李峙钢</t>
   </si>
   <si>
@@ -108,18 +90,6 @@
     <t>https://pubuserqiniu.paperol.cn/230944298_8_q9_1691678945HbWi2R.jpg?attname=8_9_IMG_5550%23x.jpg&amp;e=1699852833&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:Hw629K7TQbpPJmZfrgksD-9ibUw=</t>
   </si>
   <si>
-    <t>王维埙</t>
-  </si>
-  <si>
-    <t>Weixun Wang</t>
-  </si>
-  <si>
-    <t>LargeScale Multiagent Deep Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>https://pubuserqiniu.paperol.cn/230944298_9_q9_1691746175d8yZfA.png?attname=9_9_weixunwang.png&amp;e=1699852833&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:2v-0-q8RK2A1DkF_Ssn-ZrDhZmE=</t>
-  </si>
-  <si>
     <t>段义海</t>
   </si>
   <si>
@@ -330,10 +300,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Netease Fuxi AI Lab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Reinforcement Learning</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -395,10 +361,6 @@
   </si>
   <si>
     <t>China Academy of Aerospace Scientce and Innovation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wwxfromtju.github.io</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +374,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -435,13 +397,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -460,7 +415,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -468,14 +423,12 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="4"/>
     <cellStyle name="Comma [0]" xfId="5"/>
     <cellStyle name="Currency" xfId="2"/>
@@ -483,7 +436,6 @@
     <cellStyle name="Normal" xfId="6"/>
     <cellStyle name="Percent" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -818,58 +770,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" customWidth="1"/>
-    <col min="7" max="7" width="53.26953125" customWidth="1"/>
-    <col min="8" max="8" width="46.453125" customWidth="1"/>
-    <col min="9" max="9" width="46.26953125" customWidth="1"/>
-    <col min="10" max="10" width="255.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="9" max="9" width="46.28515625" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -895,13 +847,13 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -921,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -933,15 +885,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>2020</v>
@@ -953,27 +905,27 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2020</v>
@@ -985,59 +937,59 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>2019</v>
@@ -1049,27 +1001,27 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>2019</v>
@@ -1081,27 +1033,27 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>2019</v>
@@ -1113,27 +1065,27 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
       </c>
       <c r="D10">
         <v>2019</v>
@@ -1145,27 +1097,27 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>2019</v>
@@ -1177,27 +1129,27 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -1209,27 +1161,27 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>2019</v>
@@ -1241,59 +1193,59 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E14">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>2018</v>
@@ -1305,27 +1257,27 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
       </c>
       <c r="D16">
         <v>2018</v>
@@ -1337,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -1349,15 +1301,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>2018</v>
@@ -1369,27 +1321,27 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>2018</v>
@@ -1401,27 +1353,27 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>2018</v>
@@ -1433,112 +1385,48 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E20">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21">
-        <v>2017</v>
-      </c>
-      <c r="E21">
-        <v>2020</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>2011</v>
-      </c>
-      <c r="E22">
-        <v>2018</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1434,7 @@
     <sortCondition descending="1" ref="E1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/script/alumni_info.xlsx
+++ b/script/alumni_info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rl-lab\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rl.beiyang.ren\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6204D4B8-BB9F-421E-9DEE-8BF2837B35B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
   <si>
     <t>序号</t>
   </si>
@@ -361,20 +362,98 @@
   </si>
   <si>
     <t>China Academy of Aerospace Scientce and Innovation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴吉洲</t>
+  </si>
+  <si>
+    <t>Jizhou Wu</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning, Transfer learning</t>
+  </si>
+  <si>
+    <t>https://github.com/Cubism-star</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_13_q7_1691548718NKzDT4.jpg?attname=13_7_%e9%9b%aa.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:jVJFkHHXDuk4weOKt5hUdbavARs=</t>
+  </si>
+  <si>
+    <t>胡肖汉</t>
+  </si>
+  <si>
+    <t>Xiaohan Hu</t>
+  </si>
+  <si>
+    <t>Offline reinforcement learning</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_14_q7_1691549520yan4kr.jpg?attname=15_7_gu.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:s4l0za4jwk_8A33HjHeXvM5avg0=</t>
+  </si>
+  <si>
+    <t>赵楷</t>
+  </si>
+  <si>
+    <t>Kai Zhao</t>
+  </si>
+  <si>
+    <t>Offline Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_15_q7_16915498024if4ae.jpg?attname=16_7_1%e5%af%b8%e7%85%a7-%e8%b5%b5%e6%a5%b7-%e7%99%bd%e5%ba%951-1.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:RleMeKmDk6KTi7qwpBdCD8NDGio=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilibili</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙琦淞</t>
+  </si>
+  <si>
+    <t>Qisong Sun</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning, Automated Negotiation</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_24_q7_1691997701MFS5J4.jpg?attname=24_7_%e8%af%81%e4%bb%b6%e7%85%a7.jpg&amp;e=1699841047&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:thoLcO0bQyZ0s7K0SQLD-pB7kz4=</t>
+  </si>
+  <si>
+    <t>杨阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Yang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning, Artificial Intelligence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_21_q7_1691576043idtDEj.jpg?attname=21_7_IMG_20230809_181326.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:P9SVD4R9x7HwpV5Q8WC4e7EpC5I=</t>
+  </si>
+  <si>
+    <t>Li Auto Inc.</t>
+  </si>
+  <si>
+    <t>Li Auto Inc.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -397,6 +476,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,7 +507,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -423,19 +515,23 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Comma" xfId="4"/>
-    <cellStyle name="Comma [0]" xfId="5"/>
-    <cellStyle name="Currency" xfId="2"/>
-    <cellStyle name="Currency [0]" xfId="3"/>
-    <cellStyle name="Normal" xfId="6"/>
-    <cellStyle name="Percent" xfId="1"/>
+  <cellStyles count="8">
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -769,11 +865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -823,301 +919,298 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="D2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
+      <c r="I3" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="D4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6">
+        <v>2021</v>
+      </c>
+      <c r="E6">
+        <v>2024</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2019</v>
-      </c>
-      <c r="E6">
-        <v>2022</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>2019</v>
-      </c>
-      <c r="E9">
-        <v>2022</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>2019</v>
@@ -1129,27 +1222,27 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -1161,27 +1254,27 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>2019</v>
@@ -1193,187 +1286,187 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>2018</v>
@@ -1385,56 +1478,219 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>2018</v>
+      </c>
+      <c r="E20">
+        <v>2021</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>2018</v>
+      </c>
+      <c r="E21">
+        <v>2021</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>2018</v>
+      </c>
+      <c r="E22">
+        <v>2021</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <v>2018</v>
+      </c>
+      <c r="E23">
+        <v>2021</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>2018</v>
+      </c>
+      <c r="E24">
+        <v>2021</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D20">
+      <c r="D25">
         <v>2017</v>
       </c>
-      <c r="E20">
+      <c r="E25">
         <v>2020</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>33</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H25" t="s">
         <v>34</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I25" t="s">
         <v>85</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J25" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J29">
     <sortCondition descending="1" ref="E1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{C5DFC761-3923-4EB6-ADCC-022C9BBE6EA0}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/script/alumni_info.xlsx
+++ b/script/alumni_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rl.beiyang.ren\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iffyuan/Documents/Website/rl.beiyang.ren/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6204D4B8-BB9F-421E-9DEE-8BF2837B35B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA843DB-E538-0247-A912-91C56655FCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
   <si>
     <t>序号</t>
   </si>
@@ -440,6 +440,103 @@
   </si>
   <si>
     <t>Li Auto Inc.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李依宁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yining Li</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer learning</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_1_q7_1691395394iNdk78.jpeg?attname=1_7_6CDDE2B9-141C-4E41-B04A-F1706B497787.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:5i0T-wbJBRhgQkDQM3u-7WiBBzs=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅贤</t>
+  </si>
+  <si>
+    <t>Xian Fu</t>
+  </si>
+  <si>
+    <t>Reinfocement Learning, Evolutionary Reinfocement Learning</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_1_q7_1691395434Kd6J6x.jpeg?attname=2_7_7496D073-9B73-4406-A9A7-FDE204D21087.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:L5lpoRxQp-oprJpS35ItFmXK6rk=</t>
+  </si>
+  <si>
+    <t>刘嘉顺</t>
+  </si>
+  <si>
+    <t>Jiashun Liu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large language models, real time control</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_3_q7_1691395477G45c8R.jpeg?attname=3_7_AE1D1D58-72E8-4225-8B1E-7F9480BFD7F4.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:Xtgc5v59pD3bc3STFqqMpzQncCk=</t>
+  </si>
+  <si>
+    <t>张豪</t>
+  </si>
+  <si>
+    <t>Hao Zhang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer reinforcement learning</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_12_q7_1691490216rcPmJj.jpeg?attname=12_7_01F78DEE-99AD-4ECC-8383-05945B13D0F5.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:7FjWa2fIEP7WcS59qkRFeQf84wA=</t>
+  </si>
+  <si>
+    <t>连士熙</t>
+  </si>
+  <si>
+    <t>Shixi Lian</t>
+  </si>
+  <si>
+    <t>Offline RL</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_13_q7_16915494563bmsE7.jpg?attname=14_7_IMG_20230809_105040.jpg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:ekKk3R3A0UtkR6XeUEtciw9fVWI=</t>
+  </si>
+  <si>
+    <t>石磊</t>
+  </si>
+  <si>
+    <t>Lei Shi</t>
+  </si>
+  <si>
+    <t>Self-supervised Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>https://pubuserqiniu.paperol.cn/230948160_19_q7_1691566542hSkY2G.jpeg?attname=19_7_ee16ad54ccf55b7155c84d350209ebc8.jpeg&amp;e=1699771284&amp;token=-kY3jr8KMC7l3KkIN3OcIs8Q4s40OfGgUHr1Rg4D:S4wphWlv07dXNkYEx1fNGRt48ns=</t>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bytedance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD Technology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Civil Servant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Studying for a PhD at HKUST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -448,12 +545,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -489,6 +586,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,18 +613,22 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -866,26 +973,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
-    <col min="9" max="9" width="46.28515625" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
+    <col min="9" max="9" width="46.33203125" customWidth="1"/>
+    <col min="10" max="10" width="255.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>24</v>
       </c>
@@ -949,7 +1056,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14">
       <c r="A3">
         <v>28</v>
       </c>
@@ -981,7 +1088,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1006,11 +1113,14 @@
       <c r="H4" t="s">
         <v>4</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="J4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1042,7 +1152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1074,7 +1184,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1106,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1138,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1170,7 +1280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1202,7 +1312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1234,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>14</v>
       </c>
@@ -1266,7 +1376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1298,7 +1408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1330,7 +1440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>18</v>
       </c>
@@ -1362,7 +1472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>20</v>
       </c>
@@ -1394,7 +1504,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1426,7 +1536,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>23</v>
       </c>
@@ -1458,7 +1568,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1490,7 +1600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1522,7 +1632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1554,7 +1664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1586,7 +1696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1618,7 +1728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1650,7 +1760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>12</v>
       </c>
@@ -1680,6 +1790,195 @@
       </c>
       <c r="J25" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26">
+        <v>2022</v>
+      </c>
+      <c r="E26">
+        <v>2025</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27">
+        <v>2022</v>
+      </c>
+      <c r="E27">
+        <v>2025</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28">
+        <v>2022</v>
+      </c>
+      <c r="E28">
+        <v>2025</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+      <c r="E29">
+        <v>2025</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30">
+        <v>2022</v>
+      </c>
+      <c r="E30">
+        <v>2025</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31">
+        <v>2022</v>
+      </c>
+      <c r="E31">
+        <v>2025</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1689,8 +1988,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1" xr:uid="{C5DFC761-3923-4EB6-ADCC-022C9BBE6EA0}"/>
+    <hyperlink ref="J26" r:id="rId2" xr:uid="{5BC85C53-D788-4348-9CF2-93E0404D7A3C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/script/alumni_info.xlsx
+++ b/script/alumni_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iffyuan/Documents/Website/rl.beiyang.ren/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rl.beiyang.ren\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA843DB-E538-0247-A912-91C56655FCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5206130-6A1B-4612-AF94-381471330D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,10 +545,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -613,10 +613,10 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -976,23 +976,23 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" customWidth="1"/>
-    <col min="8" max="8" width="46.5" customWidth="1"/>
-    <col min="9" max="9" width="46.33203125" customWidth="1"/>
-    <col min="10" max="10" width="255.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="9" max="9" width="46.28515625" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,495 +1024,492 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16.5">
       <c r="A2">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>127</v>
+      <c r="I3" t="s">
+        <v>153</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E4">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>156</v>
+      <c r="I4" t="s">
+        <v>157</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
+      </c>
+      <c r="J5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E6">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="D7">
         <v>2022</v>
       </c>
       <c r="E7">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
-        <v>104</v>
-      </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="D8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25">
       <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="D9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
-        <v>87</v>
+      <c r="I9" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
+      <c r="I10" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11">
+        <v>2021</v>
+      </c>
+      <c r="E11">
+        <v>2024</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2019</v>
-      </c>
-      <c r="E11">
-        <v>2022</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" t="s">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="D12">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E12">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16">
-        <v>2019</v>
-      </c>
-      <c r="E16">
-        <v>2022</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
       <c r="H16" t="s">
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>2019</v>
@@ -1524,27 +1521,27 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>2019</v>
@@ -1556,439 +1553,442 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D23">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E23">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E24">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E25">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E26">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E27">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E28">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="D29">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E29">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="D30">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E30">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="E31">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>85</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:J31">
     <sortCondition descending="1" ref="E1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{C5DFC761-3923-4EB6-ADCC-022C9BBE6EA0}"/>
-    <hyperlink ref="J26" r:id="rId2" xr:uid="{5BC85C53-D788-4348-9CF2-93E0404D7A3C}"/>
+    <hyperlink ref="J11" r:id="rId1" xr:uid="{C5DFC761-3923-4EB6-ADCC-022C9BBE6EA0}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{5BC85C53-D788-4348-9CF2-93E0404D7A3C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
